--- a/output/soil.xlsx
+++ b/output/soil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="90">
   <si>
     <t>Location</t>
   </si>
@@ -41,18 +41,15 @@
     <t>Pre-Preceding.crop</t>
   </si>
   <si>
+    <t>organical.content</t>
+  </si>
+  <si>
+    <t>C.N.ratio</t>
+  </si>
+  <si>
     <t>Soil.cultivation.before.preceding.crop</t>
   </si>
   <si>
-    <t>organical.content</t>
-  </si>
-  <si>
-    <t>C.N.ratio</t>
-  </si>
-  <si>
-    <t>BON</t>
-  </si>
-  <si>
     <t>DKI</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
     <t>HAN</t>
   </si>
   <si>
+    <t>KAL</t>
+  </si>
+  <si>
     <t>KIE</t>
   </si>
   <si>
@@ -71,33 +71,30 @@
     <t>RHH</t>
   </si>
   <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>2015</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2018</t>
+    <t>Parabrown earth / Pseudogley</t>
+  </si>
+  <si>
+    <t>Sandy loam</t>
   </si>
   <si>
     <t>Silty clay</t>
   </si>
   <si>
-    <t>Parabrown earth / Pseudogley</t>
-  </si>
-  <si>
-    <t>Sandy loam</t>
-  </si>
-  <si>
     <t>Silty clay,loamy clay</t>
   </si>
   <si>
@@ -110,39 +107,39 @@
     <t/>
   </si>
   <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.137</t>
+  </si>
+  <si>
     <t>0.15</t>
   </si>
   <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.137</t>
-  </si>
-  <si>
     <t>0.25</t>
   </si>
   <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
     <t>0.77</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.788</t>
-  </si>
-  <si>
     <t>0.3</t>
   </si>
   <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
     <t>0.08</t>
   </si>
   <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.075</t>
-  </si>
-  <si>
     <t>0.45</t>
   </si>
   <si>
@@ -152,60 +149,75 @@
     <t>0.55</t>
   </si>
   <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
     <t>6.6</t>
   </si>
   <si>
     <t>6.8</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>6.7</t>
+    <t>fallow</t>
+  </si>
+  <si>
+    <t>winterwheat</t>
+  </si>
+  <si>
+    <t>oilseed rape</t>
   </si>
   <si>
     <t>Zuckerrüben</t>
   </si>
   <si>
+    <t>Sommergerste</t>
+  </si>
+  <si>
+    <t>Mais</t>
+  </si>
+  <si>
+    <t>oats</t>
+  </si>
+  <si>
     <t>Zückerrüben</t>
   </si>
   <si>
-    <t>fallow</t>
-  </si>
-  <si>
-    <t>winterwheat</t>
-  </si>
-  <si>
-    <t>oilseed rape</t>
-  </si>
-  <si>
-    <t>Sommergerste</t>
-  </si>
-  <si>
-    <t>Mais</t>
-  </si>
-  <si>
-    <t>oats</t>
-  </si>
-  <si>
     <t>Avena (green cutting, mulching)</t>
   </si>
   <si>
+    <t>maize</t>
+  </si>
+  <si>
+    <t>winter wheat</t>
+  </si>
+  <si>
+    <t>Verschiedene Getreide</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Winter wheat</t>
+  </si>
+  <si>
     <t>Weizen</t>
   </si>
   <si>
@@ -215,76 +227,61 @@
     <t>Wintergerste</t>
   </si>
   <si>
-    <t>maize</t>
-  </si>
-  <si>
-    <t>winter wheat</t>
-  </si>
-  <si>
-    <t>Verschiedene Getreide</t>
-  </si>
-  <si>
-    <t>Winter wheat</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>winterbarley</t>
   </si>
   <si>
     <t>Lucerne, ryegrass</t>
   </si>
   <si>
+    <t xml:space="preserve">1 - 4 </t>
+  </si>
+  <si>
+    <t>1,5-3</t>
+  </si>
+  <si>
+    <t>1,5-4</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - 5 </t>
+  </si>
+  <si>
+    <t>1 - 4</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>10 - 18:1</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Pflug Egge</t>
+  </si>
+  <si>
     <t>/</t>
   </si>
   <si>
-    <t>Pflug Egge</t>
-  </si>
-  <si>
     <t>Stubble cultivation, plowing</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - 4 </t>
-  </si>
-  <si>
-    <t>1,5-3</t>
-  </si>
-  <si>
-    <t>1,5-4</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
-    <t>2.95</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 - 5 </t>
-  </si>
-  <si>
-    <t>1 - 4</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>10 - 18:1</t>
-  </si>
-  <si>
-    <t>na</t>
   </si>
 </sst>
 </file>
@@ -381,34 +378,34 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -419,34 +416,34 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
         <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -457,34 +454,34 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -492,37 +489,37 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
         <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -530,37 +527,37 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -568,37 +565,37 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -606,37 +603,37 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -644,37 +641,37 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -682,113 +679,113 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -796,37 +793,37 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -834,37 +831,37 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -872,37 +869,37 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -910,37 +907,37 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="L16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -948,37 +945,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="L17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -986,37 +983,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L18" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -1027,34 +1024,34 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -1062,37 +1059,37 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="L20" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -1100,37 +1097,37 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="L21" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -1138,37 +1135,37 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -1176,37 +1173,37 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="L23" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -1214,37 +1211,37 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -1252,37 +1249,37 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/output/soil.xlsx
+++ b/output/soil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="90">
   <si>
     <t>Location</t>
   </si>
@@ -600,40 +600,40 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s">
         <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -641,7 +641,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -656,16 +656,16 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s">
         <v>30</v>
@@ -679,7 +679,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -694,7 +694,7 @@
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
         <v>59</v>
@@ -703,7 +703,7 @@
         <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
         <v>30</v>
@@ -717,10 +717,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -732,22 +732,22 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
         <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -755,7 +755,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -770,16 +770,16 @@
         <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
         <v>86</v>
@@ -790,40 +790,40 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -831,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -843,25 +843,25 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
         <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
         <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
@@ -869,7 +869,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -884,16 +884,16 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s">
         <v>30</v>
@@ -904,40 +904,40 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s">
         <v>30</v>
       </c>
       <c r="L16" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -945,22 +945,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -969,7 +969,7 @@
         <v>71</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s">
         <v>30</v>
@@ -983,19 +983,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
         <v>51</v>
@@ -1010,7 +1010,7 @@
         <v>83</v>
       </c>
       <c r="K18" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s">
         <v>30</v>
@@ -1021,7 +1021,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -1059,31 +1059,31 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s">
         <v>85</v>
@@ -1094,40 +1094,40 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="K21" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="L21" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -1135,7 +1135,7 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1173,7 +1173,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -1208,13 +1208,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -1226,22 +1226,22 @@
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="J24" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s">
         <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -1249,36 +1249,112 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" t="s">
         <v>30</v>
       </c>
     </row>

--- a/output/soil.xlsx
+++ b/output/soil.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB705F69-7E92-A749-9E81-1C0608DF1542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -287,13 +295,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -303,7 +310,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -321,18 +328,356 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,7 +715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -408,7 +753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -446,7 +791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -484,7 +829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -522,7 +867,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -560,7 +905,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -598,7 +943,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -636,7 +981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -674,7 +1019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -712,7 +1057,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -750,7 +1095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -788,7 +1133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -826,7 +1171,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -864,7 +1209,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -902,7 +1247,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -940,7 +1285,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -978,7 +1323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1016,7 +1361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1054,7 +1399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1092,7 +1437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +1475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1168,7 +1513,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1206,7 +1551,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1244,7 +1589,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1282,7 +1627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1320,7 +1665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1359,6 +1704,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>